--- a/biology/Botanique/Inventaire_forestier_national/Inventaire_forestier_national.xlsx
+++ b/biology/Botanique/Inventaire_forestier_national/Inventaire_forestier_national.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un inventaire forestier national est un inventaire forestier réalisé pour un pays entier, grâce à des méthodes statistiques.
 Ses principaux objectifs sont :
 évaluer la ressource de bois et son évolution ;
 disposer d'éléments chiffrés pour décider la politique forestière et évaluer son impact.
 Ces inventaires concernent souvent des milliards d'arbres et de vastes surfaces dont les quantités et qualités ne peuvent être qu'approchées grâce à des extrapolations. Leur précision dépend aussi de la régularité des mises à jour de tableaux statistiques.
-La photo aérienne et satellitale, le GPS ont récemment apporté une meilleure précision géographique, mais comme le rappelait en France en 1944 le forestier P. Fourchy, « II ne faut se risquer qu'avec prudence dans les statistiques forestières, même les plus modernes et les plus soignées, car toutes présentent une large marge d'approximation et d'incertitude, marge absolument inévitable »[1], ce que confirmait en 1953 R. Leroy dans un article intitulé « L'emploi des statistiques forestières dans les monographies »[2]. Les revenus de la forêt (bois, chasse, pêche…), corrigés des avantages fiscaux, subventions ou d'autres types d'aide et les calculs de prix de revient sont également à appréhender sur de longs pas de temps et sont parfois difficiles à calculer[3]. Les comparaisons interrégionales ou de pays à pays doivent être faites avec prudence en raison de contextes différents, mais aussi en raison de vocabulaires techniques, de méthodes d'inventaires et d'évaluation parfois très différentes[4].
+La photo aérienne et satellitale, le GPS ont récemment apporté une meilleure précision géographique, mais comme le rappelait en France en 1944 le forestier P. Fourchy, « II ne faut se risquer qu'avec prudence dans les statistiques forestières, même les plus modernes et les plus soignées, car toutes présentent une large marge d'approximation et d'incertitude, marge absolument inévitable », ce que confirmait en 1953 R. Leroy dans un article intitulé « L'emploi des statistiques forestières dans les monographies ». Les revenus de la forêt (bois, chasse, pêche…), corrigés des avantages fiscaux, subventions ou d'autres types d'aide et les calculs de prix de revient sont également à appréhender sur de longs pas de temps et sont parfois difficiles à calculer. Les comparaisons interrégionales ou de pays à pays doivent être faites avec prudence en raison de contextes différents, mais aussi en raison de vocabulaires techniques, de méthodes d'inventaires et d'évaluation parfois très différentes.
 </t>
         </is>
       </c>
@@ -516,10 +528,12 @@
           <t>Europe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Belgique
-L'inventaire forestier national de la Région flamande est effectué par l'Agentschap voor Natuur en Bos depuis l'année 2008[5].
+L'inventaire forestier national de la Région flamande est effectué par l'Agentschap voor Natuur en Bos depuis l'année 2008.
 France
 L'inventaire est réalisé par l’Institut national de l'information géographique et forestière (organisme résultant de la fusion en 2012 des anciens Inventaire forestier national et IGN).
 République tchèque
@@ -558,12 +572,14 @@
           <t>Amérique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pérou
 Le premier inventaire national du Pérou doit commencer pendant l'année 2010. 15 équipes sont prévues pendant le projet pilote.
 Uruguay
-Le premier inventaire forestier national du Uruguay est effectué par La Dirección General Forestal, el Ministerio de Ganadería, Agricultura y Pesca (MGAP), avec l'aide de FAO ([1]).
+Le premier inventaire forestier national du Uruguay est effectué par La Dirección General Forestal, el Ministerio de Ganadería, Agricultura y Pesca (MGAP), avec l'aide de FAO ().
 </t>
         </is>
       </c>
@@ -592,7 +608,9 @@
           <t>Afrique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Algérie
 L'Algérie a commencé son premier inventaire forestier national en 1984, puis actualisé en 2008. Le projet est piloté par l'Institut national de recherche forestière.
